--- a/biology/Médecine/William_John_Little/William_John_Little.xlsx
+++ b/biology/Médecine/William_John_Little/William_John_Little.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William John Little (1810–1894) est un chirurgien britannique. On lui attribue la première identification médicale écrite de la diplégie spastique (nommée longtemps Little's Disease) au cours des années 1860. Little est également le fondateur de la Royal Orthopaedic Hospital (en) de Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Little souffre de poliomyélite infantile résultant en des difficultés au membre inférieur gauche l'amenant notamment à souffrir de pied bot. Cela aurait eu une certaine influence sur son intérêt pour la médecine et la chirurgie orthopédique. 
 Au cours de sa jeunesse, il est apprenti apothicaire. À 18 ans, il entame des études de médecine au Royal London Hospital. Il est admis au Collège royal de chirurgie en 1832.
